--- a/data/panelapp/au/Deafness_IsolatedAndComplex.xlsx
+++ b/data/panelapp/au/Deafness_IsolatedAndComplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847953</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847965</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847968</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847971</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847973</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847976</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847979</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847981</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847984</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847986</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847989</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847992</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847994</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847996</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.847999</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848001</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848004</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848007</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848009</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848012</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848014</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848017</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848019</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848022</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848025</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848027</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848030</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848032</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848034</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848037</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848039</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848042</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848045</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848047</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848050</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848052</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848055</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848057</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848060</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848062</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848065</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848068</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848070</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848073</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848075</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848077</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848080</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848082</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848085</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848088</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848090</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848092</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848095</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848098</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848101</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848103</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848105</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848108</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848111</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848113</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848115</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848118</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848120</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848123</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848126</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848129</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848132</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848134</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848137</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848139</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848142</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848144</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848147</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848149</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848152</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848154</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848159</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848162</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848164</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848167</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848169</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848172</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848174</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848177</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848179</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848182</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848184</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848187</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848189</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848192</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848194</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848197</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848200</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848203</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848206</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848208</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848211</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848213</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848216</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848218</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848221</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848223</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848226</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848228</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848231</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848233</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848236</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848238</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848242</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848245</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848248</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848250</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848253</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848255</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848258</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848260</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848263</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848265</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848268</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848270</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848273</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848275</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848278</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848280</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848282</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848285</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848287</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848290</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848294</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848298</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848300</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848303</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848305</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848308</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848310</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848313</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848315</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848318</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848320</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848323</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848325</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848328</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848330</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848333</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848335</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848338</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848340</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848343</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848345</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848348</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848351</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848353</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848355</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848358</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848361</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848363</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848366</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848368</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848371</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848373</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848376</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848379</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848381</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848384</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848387</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848389</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848392</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848394</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848397</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848399</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848402</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848404</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848408</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848411</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848414</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848416</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848419</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848421</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848424</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848426</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848429</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848431</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848434</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848436</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848439</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848441</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848444</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848446</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848449</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848451</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848454</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848457</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848460</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848462</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848465</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848467</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848470</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848472</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848475</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848477</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848480</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848483</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848486</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848488</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848491</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848493</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848496</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848498</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848501</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848503</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848506</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848508</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848511</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848514</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848516</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848519</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848521</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848524</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848527</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848529</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848532</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848535</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848537</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Deafness_IsolatedAndComplex</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848540</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6077,6 +7202,11 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>Deafness_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:41.848542</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Deafness_IsolatedAndComplex.xlsx
+++ b/data/panelapp/au/Deafness_IsolatedAndComplex.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847953</t>
+          <t>2021-10-05 14:33:40.928719</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847965</t>
+          <t>2021-10-05 14:33:40.928727</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847968</t>
+          <t>2021-10-05 14:33:40.928730</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847971</t>
+          <t>2021-10-05 14:33:40.928733</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847973</t>
+          <t>2021-10-05 14:33:40.928736</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847976</t>
+          <t>2021-10-05 14:33:40.928738</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847979</t>
+          <t>2021-10-05 14:33:40.928741</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847981</t>
+          <t>2021-10-05 14:33:40.928743</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847984</t>
+          <t>2021-10-05 14:33:40.928746</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847986</t>
+          <t>2021-10-05 14:33:40.928749</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847989</t>
+          <t>2021-10-05 14:33:40.928751</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847992</t>
+          <t>2021-10-05 14:33:40.928754</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847994</t>
+          <t>2021-10-05 14:33:40.928757</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847996</t>
+          <t>2021-10-05 14:33:40.928759</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.847999</t>
+          <t>2021-10-05 14:33:40.928762</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848001</t>
+          <t>2021-10-05 14:33:40.928764</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848004</t>
+          <t>2021-10-05 14:33:40.928767</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848007</t>
+          <t>2021-10-05 14:33:40.928770</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848009</t>
+          <t>2021-10-05 14:33:40.928772</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848012</t>
+          <t>2021-10-05 14:33:40.928775</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848014</t>
+          <t>2021-10-05 14:33:40.928778</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848017</t>
+          <t>2021-10-05 14:33:40.928780</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848019</t>
+          <t>2021-10-05 14:33:40.928783</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848022</t>
+          <t>2021-10-05 14:33:40.928785</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848025</t>
+          <t>2021-10-05 14:33:40.928788</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848027</t>
+          <t>2021-10-05 14:33:40.928790</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848030</t>
+          <t>2021-10-05 14:33:40.928793</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848032</t>
+          <t>2021-10-05 14:33:40.928795</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848034</t>
+          <t>2021-10-05 14:33:40.928798</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848037</t>
+          <t>2021-10-05 14:33:40.928800</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848039</t>
+          <t>2021-10-05 14:33:40.928802</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848042</t>
+          <t>2021-10-05 14:33:40.928805</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848045</t>
+          <t>2021-10-05 14:33:40.928808</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848047</t>
+          <t>2021-10-05 14:33:40.928810</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848050</t>
+          <t>2021-10-05 14:33:40.928813</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848052</t>
+          <t>2021-10-05 14:33:40.928815</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848055</t>
+          <t>2021-10-05 14:33:40.928818</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848057</t>
+          <t>2021-10-05 14:33:40.928820</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848060</t>
+          <t>2021-10-05 14:33:40.928823</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848062</t>
+          <t>2021-10-05 14:33:40.928825</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848065</t>
+          <t>2021-10-05 14:33:40.928828</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848068</t>
+          <t>2021-10-05 14:33:40.928831</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848070</t>
+          <t>2021-10-05 14:33:40.928833</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848073</t>
+          <t>2021-10-05 14:33:40.928835</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848075</t>
+          <t>2021-10-05 14:33:40.928838</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848077</t>
+          <t>2021-10-05 14:33:40.928840</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848080</t>
+          <t>2021-10-05 14:33:40.928843</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848082</t>
+          <t>2021-10-05 14:33:40.928845</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848085</t>
+          <t>2021-10-05 14:33:40.928848</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848088</t>
+          <t>2021-10-05 14:33:40.928850</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848090</t>
+          <t>2021-10-05 14:33:40.928853</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848092</t>
+          <t>2021-10-05 14:33:40.928855</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848095</t>
+          <t>2021-10-05 14:33:40.928858</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848098</t>
+          <t>2021-10-05 14:33:40.928861</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848101</t>
+          <t>2021-10-05 14:33:40.928863</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848103</t>
+          <t>2021-10-05 14:33:40.928866</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848105</t>
+          <t>2021-10-05 14:33:40.928868</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848108</t>
+          <t>2021-10-05 14:33:40.928871</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848111</t>
+          <t>2021-10-05 14:33:40.928873</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848113</t>
+          <t>2021-10-05 14:33:40.928875</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848115</t>
+          <t>2021-10-05 14:33:40.928878</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848118</t>
+          <t>2021-10-05 14:33:40.928880</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848120</t>
+          <t>2021-10-05 14:33:40.928883</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848123</t>
+          <t>2021-10-05 14:33:40.928885</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848126</t>
+          <t>2021-10-05 14:33:40.928889</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848129</t>
+          <t>2021-10-05 14:33:40.928892</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848132</t>
+          <t>2021-10-05 14:33:40.928894</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848134</t>
+          <t>2021-10-05 14:33:40.928897</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848137</t>
+          <t>2021-10-05 14:33:40.928899</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848139</t>
+          <t>2021-10-05 14:33:40.928902</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848142</t>
+          <t>2021-10-05 14:33:40.928904</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848144</t>
+          <t>2021-10-05 14:33:40.928907</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848147</t>
+          <t>2021-10-05 14:33:40.928909</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848149</t>
+          <t>2021-10-05 14:33:40.928912</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848152</t>
+          <t>2021-10-05 14:33:40.928914</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848154</t>
+          <t>2021-10-05 14:33:40.928917</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848159</t>
+          <t>2021-10-05 14:33:40.928921</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848162</t>
+          <t>2021-10-05 14:33:40.928924</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848164</t>
+          <t>2021-10-05 14:33:40.928927</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848167</t>
+          <t>2021-10-05 14:33:40.928929</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848169</t>
+          <t>2021-10-05 14:33:40.928932</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848172</t>
+          <t>2021-10-05 14:33:40.928934</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848174</t>
+          <t>2021-10-05 14:33:40.928937</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848177</t>
+          <t>2021-10-05 14:33:40.928939</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848179</t>
+          <t>2021-10-05 14:33:40.928942</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848182</t>
+          <t>2021-10-05 14:33:40.928944</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848184</t>
+          <t>2021-10-05 14:33:40.928947</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848187</t>
+          <t>2021-10-05 14:33:40.928950</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848189</t>
+          <t>2021-10-05 14:33:40.928952</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848192</t>
+          <t>2021-10-05 14:33:40.928955</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848194</t>
+          <t>2021-10-05 14:33:40.928957</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848197</t>
+          <t>2021-10-05 14:33:40.928960</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848200</t>
+          <t>2021-10-05 14:33:40.928964</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848203</t>
+          <t>2021-10-05 14:33:40.928967</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848206</t>
+          <t>2021-10-05 14:33:40.928969</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848208</t>
+          <t>2021-10-05 14:33:40.928972</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848211</t>
+          <t>2021-10-05 14:33:40.928974</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848213</t>
+          <t>2021-10-05 14:33:40.928977</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848216</t>
+          <t>2021-10-05 14:33:40.928979</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848218</t>
+          <t>2021-10-05 14:33:40.928982</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848221</t>
+          <t>2021-10-05 14:33:40.928984</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848223</t>
+          <t>2021-10-05 14:33:40.928987</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848226</t>
+          <t>2021-10-05 14:33:40.928990</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848228</t>
+          <t>2021-10-05 14:33:40.928992</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848231</t>
+          <t>2021-10-05 14:33:40.928995</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848233</t>
+          <t>2021-10-05 14:33:40.928997</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848236</t>
+          <t>2021-10-05 14:33:40.929000</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848238</t>
+          <t>2021-10-05 14:33:40.929002</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848242</t>
+          <t>2021-10-05 14:33:40.929006</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848245</t>
+          <t>2021-10-05 14:33:40.929009</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848248</t>
+          <t>2021-10-05 14:33:40.929012</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848250</t>
+          <t>2021-10-05 14:33:40.929014</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848253</t>
+          <t>2021-10-05 14:33:40.929017</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848255</t>
+          <t>2021-10-05 14:33:40.929019</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848258</t>
+          <t>2021-10-05 14:33:40.929022</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848260</t>
+          <t>2021-10-05 14:33:40.929024</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848263</t>
+          <t>2021-10-05 14:33:40.929027</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848265</t>
+          <t>2021-10-05 14:33:40.929029</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848268</t>
+          <t>2021-10-05 14:33:40.929032</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848270</t>
+          <t>2021-10-05 14:33:40.929034</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848273</t>
+          <t>2021-10-05 14:33:40.929037</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848275</t>
+          <t>2021-10-05 14:33:40.929039</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848278</t>
+          <t>2021-10-05 14:33:40.929042</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848280</t>
+          <t>2021-10-05 14:33:40.929044</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848282</t>
+          <t>2021-10-05 14:33:40.929046</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848285</t>
+          <t>2021-10-05 14:33:40.929049</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848287</t>
+          <t>2021-10-05 14:33:40.929051</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848290</t>
+          <t>2021-10-05 14:33:40.929054</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848294</t>
+          <t>2021-10-05 14:33:40.929058</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848298</t>
+          <t>2021-10-05 14:33:40.929061</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848300</t>
+          <t>2021-10-05 14:33:40.929064</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848303</t>
+          <t>2021-10-05 14:33:40.929066</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848305</t>
+          <t>2021-10-05 14:33:40.929069</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848308</t>
+          <t>2021-10-05 14:33:40.929071</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848310</t>
+          <t>2021-10-05 14:33:40.929074</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848313</t>
+          <t>2021-10-05 14:33:40.929076</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848315</t>
+          <t>2021-10-05 14:33:40.929079</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848318</t>
+          <t>2021-10-05 14:33:40.929081</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848320</t>
+          <t>2021-10-05 14:33:40.929084</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848323</t>
+          <t>2021-10-05 14:33:40.929086</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848325</t>
+          <t>2021-10-05 14:33:40.929089</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848328</t>
+          <t>2021-10-05 14:33:40.929091</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848330</t>
+          <t>2021-10-05 14:33:40.929094</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848333</t>
+          <t>2021-10-05 14:33:40.929096</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848335</t>
+          <t>2021-10-05 14:33:40.929099</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848338</t>
+          <t>2021-10-05 14:33:40.929101</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848340</t>
+          <t>2021-10-05 14:33:40.929104</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848343</t>
+          <t>2021-10-05 14:33:40.929106</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848345</t>
+          <t>2021-10-05 14:33:40.929109</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848348</t>
+          <t>2021-10-05 14:33:40.929112</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848351</t>
+          <t>2021-10-05 14:33:40.929114</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848353</t>
+          <t>2021-10-05 14:33:40.929117</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848355</t>
+          <t>2021-10-05 14:33:40.929119</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848358</t>
+          <t>2021-10-05 14:33:40.929122</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848361</t>
+          <t>2021-10-05 14:33:40.929124</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848363</t>
+          <t>2021-10-05 14:33:40.929127</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848366</t>
+          <t>2021-10-05 14:33:40.929129</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848368</t>
+          <t>2021-10-05 14:33:40.929132</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848371</t>
+          <t>2021-10-05 14:33:40.929135</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848373</t>
+          <t>2021-10-05 14:33:40.929137</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848376</t>
+          <t>2021-10-05 14:33:40.929140</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848379</t>
+          <t>2021-10-05 14:33:40.929146</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848381</t>
+          <t>2021-10-05 14:33:40.929148</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848384</t>
+          <t>2021-10-05 14:33:40.929151</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848387</t>
+          <t>2021-10-05 14:33:40.929153</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848389</t>
+          <t>2021-10-05 14:33:40.929156</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848392</t>
+          <t>2021-10-05 14:33:40.929158</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848394</t>
+          <t>2021-10-05 14:33:40.929161</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848397</t>
+          <t>2021-10-05 14:33:40.929163</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848399</t>
+          <t>2021-10-05 14:33:40.929166</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848402</t>
+          <t>2021-10-05 14:33:40.929169</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848404</t>
+          <t>2021-10-05 14:33:40.929171</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848408</t>
+          <t>2021-10-05 14:33:40.929175</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848411</t>
+          <t>2021-10-05 14:33:40.929178</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848414</t>
+          <t>2021-10-05 14:33:40.929181</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848416</t>
+          <t>2021-10-05 14:33:40.929183</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848419</t>
+          <t>2021-10-05 14:33:40.929186</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848421</t>
+          <t>2021-10-05 14:33:40.929188</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848424</t>
+          <t>2021-10-05 14:33:40.929191</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848426</t>
+          <t>2021-10-05 14:33:40.929193</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848429</t>
+          <t>2021-10-05 14:33:40.929196</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848431</t>
+          <t>2021-10-05 14:33:40.929198</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848434</t>
+          <t>2021-10-05 14:33:40.929201</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848436</t>
+          <t>2021-10-05 14:33:40.929203</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848439</t>
+          <t>2021-10-05 14:33:40.929206</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848441</t>
+          <t>2021-10-05 14:33:40.929208</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848444</t>
+          <t>2021-10-05 14:33:40.929211</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848446</t>
+          <t>2021-10-05 14:33:40.929213</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848449</t>
+          <t>2021-10-05 14:33:40.929216</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848451</t>
+          <t>2021-10-05 14:33:40.929218</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848454</t>
+          <t>2021-10-05 14:33:40.929221</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848457</t>
+          <t>2021-10-05 14:33:40.929223</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848460</t>
+          <t>2021-10-05 14:33:40.929226</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848462</t>
+          <t>2021-10-05 14:33:40.929228</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848465</t>
+          <t>2021-10-05 14:33:40.929231</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848467</t>
+          <t>2021-10-05 14:33:40.929233</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848470</t>
+          <t>2021-10-05 14:33:40.929236</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848472</t>
+          <t>2021-10-05 14:33:40.929238</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848475</t>
+          <t>2021-10-05 14:33:40.929241</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848477</t>
+          <t>2021-10-05 14:33:40.929243</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848480</t>
+          <t>2021-10-05 14:33:40.929246</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848483</t>
+          <t>2021-10-05 14:33:40.929249</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848486</t>
+          <t>2021-10-05 14:33:40.929251</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848488</t>
+          <t>2021-10-05 14:33:40.929254</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848491</t>
+          <t>2021-10-05 14:33:40.929257</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848493</t>
+          <t>2021-10-05 14:33:40.929259</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848496</t>
+          <t>2021-10-05 14:33:40.929262</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848498</t>
+          <t>2021-10-05 14:33:40.929264</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848501</t>
+          <t>2021-10-05 14:33:40.929267</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848503</t>
+          <t>2021-10-05 14:33:40.929269</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848506</t>
+          <t>2021-10-05 14:33:40.929272</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848508</t>
+          <t>2021-10-05 14:33:40.929274</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848511</t>
+          <t>2021-10-05 14:33:40.929276</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848514</t>
+          <t>2021-10-05 14:33:40.929279</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848516</t>
+          <t>2021-10-05 14:33:40.929281</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848519</t>
+          <t>2021-10-05 14:33:40.929284</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848521</t>
+          <t>2021-10-05 14:33:40.929287</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848524</t>
+          <t>2021-10-05 14:33:40.929289</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848527</t>
+          <t>2021-10-05 14:33:40.929292</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848529</t>
+          <t>2021-10-05 14:33:40.929294</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848532</t>
+          <t>2021-10-05 14:33:40.929297</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848535</t>
+          <t>2021-10-05 14:33:40.929300</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848537</t>
+          <t>2021-10-05 14:33:40.929302</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848540</t>
+          <t>2021-10-05 14:33:40.929305</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,91 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:41.848542</t>
+          <t>2021-10-05 14:33:40.929308</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Deafness_IsolatedAndComplex</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>209</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-21T04:48:38.370327Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:40.925355</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/209/?format=json</t>
         </is>
       </c>
     </row>
